--- a/src/competencia_final/secuencia.xlsx
+++ b/src/competencia_final/secuencia.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgaricoche\Desktop\Facultad\DMEyF_2022\repo\dmeyf_2022\src\exp_colectivo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgaricoche\Desktop\Facultad\DMEyF_2022\repo\dmeyf_2022\src\competencia_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC725011-DE0A-4420-941A-2DE8ED32B76C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4901AA6B-22FB-4594-8749-47E2A9189396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-4680" windowWidth="29040" windowHeight="15840" xr2:uid="{66CD2E9A-68E3-4D6A-AA2B-036C42E09D3A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>HECHO</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Dataset original</t>
   </si>
   <si>
-    <t>datasets/competencia3_2022.csv.gz</t>
-  </si>
-  <si>
     <t>Machine Learing</t>
   </si>
   <si>
@@ -83,101 +80,37 @@
     <t>ALTERNATIVA 1: 2 meses</t>
   </si>
   <si>
-    <t>ALTERNATIVA 2: 3 meses</t>
-  </si>
-  <si>
     <t>Duración</t>
   </si>
   <si>
-    <t>exp/EC_CA9060/dataset.csv.gz</t>
-  </si>
-  <si>
-    <t>exp/EC_DR9141/dataset.csv.gz</t>
-  </si>
-  <si>
-    <t>exp/EC_FE9251/dataset.csv.gz</t>
-  </si>
-  <si>
     <t>SI</t>
   </si>
   <si>
-    <t>2 minutos</t>
-  </si>
-  <si>
     <t>Training strategy</t>
   </si>
   <si>
     <t>exp/EC_TS931_1/dataset.csv.gz</t>
   </si>
   <si>
-    <t>10 minutos</t>
-  </si>
-  <si>
-    <t>exp/EC_TS931_2/dataset.csv.gz</t>
-  </si>
-  <si>
-    <t>train &amp; final_train: jun-19 a dic-19 y sep-20 a ene-21
-validation: feb-21
-test: may-19 y may-21
-seed: 335897
-undersampling: 0.4</t>
-  </si>
-  <si>
     <t>15 minutos</t>
   </si>
   <si>
-    <t>Canarios asesinos. 257 variables finales</t>
-  </si>
-  <si>
-    <t>train &amp; final_train: may-19 a dic-19 y sep-20 a ene-21
-validation: feb-21
-test: mar-21, abr-21, may-21.
-seed: 335897
-undersampling: 0.4</t>
-  </si>
-  <si>
     <t>BO</t>
   </si>
   <si>
     <t>exp/EC_HT9420_1/dataset.csv.gz</t>
   </si>
   <si>
-    <t>Undersampling aplicado.
-KBO_iteraciones: 100
-seed: 335897</t>
-  </si>
-  <si>
     <t>942_1</t>
   </si>
   <si>
-    <t>942_2</t>
-  </si>
-  <si>
-    <t>exp/EC_HT9420_2/dataset.csv.gz</t>
-  </si>
-  <si>
-    <t>8 minutos</t>
-  </si>
-  <si>
-    <t>6 horas y 30 minutos</t>
-  </si>
-  <si>
     <t>Final training</t>
   </si>
   <si>
     <t>992_1</t>
   </si>
   <si>
-    <t>992_2</t>
-  </si>
-  <si>
     <t>exp/EC_ZZ9420_1/dataset.csv.gz</t>
-  </si>
-  <si>
-    <t>exp/EC_ZZ9420_2/dataset.csv.gz</t>
-  </si>
-  <si>
-    <t>7 horas y 30 minutos</t>
   </si>
   <si>
     <t>20 minutos</t>
@@ -191,57 +124,46 @@
 BO iteration: 85</t>
   </si>
   <si>
-    <t>seeds: c(335897, 679909, 320923, 629243, 659819)
-Corte: 7000 a 15000
-BO iteration: 60</t>
-  </si>
-  <si>
-    <t>train &amp; final_train: may-19 a dic-19 y sep-20 a ene-21
-validation: feb-21
-test: may-21.
-seed: 335897
-undersampling: 0.4</t>
-  </si>
-  <si>
-    <t>exp/EC_TS931_0/dataset.csv.gz</t>
-  </si>
-  <si>
-    <t>exp/EC_HT9420_0/dataset.csv.gz</t>
-  </si>
-  <si>
-    <t>exp/EC_ZZ9420_0/dataset.csv.gz</t>
-  </si>
-  <si>
-    <t>942_0</t>
-  </si>
-  <si>
-    <t>992_0</t>
-  </si>
-  <si>
-    <t>931_2</t>
-  </si>
-  <si>
     <t>931_1</t>
   </si>
   <si>
-    <t>931_0</t>
-  </si>
-  <si>
     <t>8 vcpu &amp; 256 memory</t>
   </si>
   <si>
-    <t>11 horas</t>
-  </si>
-  <si>
-    <t>30 minutos</t>
-  </si>
-  <si>
-    <t>seeds: c(335897, 679909, 320923, 629243, 659819)
-Corte: 7000 a 15000
-BO iteration: 59</t>
-  </si>
-  <si>
-    <t>ALTERNATIVA 3: control</t>
+    <t>datasets/competenciaFINAL_2022.csv.gz</t>
+  </si>
+  <si>
+    <t>exp/FC_CA9060/dataset.csv.gz</t>
+  </si>
+  <si>
+    <t>exp/FC_DR9141/dataset.csv.gz</t>
+  </si>
+  <si>
+    <t>exp/FC_FE9251/dataset.csv.gz</t>
+  </si>
+  <si>
+    <t>Lags 1, 2 y 3. Tendencias a 12 meses.
+Random Forest.
+Canarios asesinos: 0.4. 
+580 variables finales</t>
+  </si>
+  <si>
+    <t>exp/FC_TS9320/dataset.csv.gz</t>
+  </si>
+  <si>
+    <t>train &amp; final_train: ene-19 a feb-20 y nov-20 a may-21
+validation: jun-21
+test: jul-21
+seeds: 335897
+undersampling clase mayoritaria: 0.6</t>
+  </si>
+  <si>
+    <t>Undersampling aplicado.
+KBO_iteraciones: 70
+seed: 335897</t>
+  </si>
+  <si>
+    <t>Arrancó 1:26</t>
   </si>
 </sst>
 </file>
@@ -606,11 +528,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB7E0C5-F25A-4B1D-8DDE-18F7D275B2D4}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -625,7 +545,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -651,12 +571,12 @@
         <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -668,285 +588,141 @@
         <v>906</v>
       </c>
       <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
         <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>914</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
-      </c>
-      <c r="H5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
       </c>
       <c r="D6">
         <v>925</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" t="s">
-        <v>27</v>
+        <v>33</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
         <v>20</v>
       </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>31</v>
-      </c>
       <c r="G12" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="H13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" t="s">
-        <v>42</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" t="s">
-        <v>50</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" t="s">
-        <v>50</v>
-      </c>
-      <c r="F25" t="s">
-        <v>51</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H25" t="s">
-        <v>59</v>
-      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G20" s="2"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
